--- a/new-version/data/dreaded-bar-anime-data-for-use.xlsx
+++ b/new-version/data/dreaded-bar-anime-data-for-use.xlsx
@@ -1,134 +1,379 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/jyang4_worldbank_org/Documents/_EAPTSD/storymap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judyyang/GitHub/24f402c1-271d-4361-a6b3-2ad3a1fcffe1/new-version/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{D5A4EE7D-3C1F-4151-A611-A8C6E996D46A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5B0CECDB-10AA-4CE0-B43A-7E718D3AE980}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4AD155D-48E0-A44B-85F4-08D31CFD9E27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" xr2:uid="{C4111F4B-0EDA-4654-9B05-DCDECDC490C0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="dreaded-bar-anime-data-for-use" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$R$13</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+  <si>
+    <t>Threshold</t>
+  </si>
   <si>
     <t>Country</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>Developing EAP ex-China</t>
-  </si>
-  <si>
-    <t>Threshold</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
-    <t>0-1.9/day</t>
+    <t>extreme</t>
   </si>
   <si>
-    <t>1.9-3.2/day</t>
+    <t>moderate</t>
   </si>
   <si>
-    <t>3.2-5.5/day</t>
+    <t>vulnerable</t>
   </si>
   <si>
-    <t>5.5-15/day</t>
+    <t>secure</t>
   </si>
   <si>
-    <t>15-50/day</t>
+    <t>middle_class</t>
   </si>
   <si>
-    <t>above 50</t>
+    <t>above_mc</t>
+  </si>
+  <si>
+    <t>RoEAP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -136,19 +381,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{09A66B25-B6C9-4FE0-8027-CBE9DFC3762F}"/>
-    <cellStyle name="Normal 4 3" xfId="2" xr:uid="{145471F4-7E8E-410B-9229-50C688CEB67A}"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -459,55 +889,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C668BB2E-022F-4B80-8DA0-ED7AB5869778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection sqref="A1:R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
+      <c r="C1">
+        <v>2002</v>
+      </c>
+      <c r="D1">
+        <v>2003</v>
+      </c>
+      <c r="E1">
+        <v>2004</v>
+      </c>
+      <c r="F1">
+        <v>2005</v>
+      </c>
+      <c r="G1">
+        <v>2006</v>
+      </c>
+      <c r="H1">
+        <v>2007</v>
+      </c>
+      <c r="I1">
+        <v>2008</v>
+      </c>
+      <c r="J1">
+        <v>2009</v>
+      </c>
+      <c r="K1">
+        <v>2010</v>
+      </c>
+      <c r="L1">
+        <v>2011</v>
       </c>
       <c r="M1">
         <v>2012</v>
@@ -528,966 +957,679 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>409.06788849960003</v>
+        <v>409.06788849999998</v>
       </c>
       <c r="D2">
-        <v>348.03617563015609</v>
+        <v>348.03617559999998</v>
       </c>
       <c r="E2">
-        <v>295.40687777569531</v>
+        <v>295.40687780000002</v>
       </c>
       <c r="F2">
-        <v>244.505878529146</v>
+        <v>244.50587849999999</v>
       </c>
       <c r="G2">
-        <v>225.60376365019741</v>
+        <v>225.6037637</v>
       </c>
       <c r="H2">
-        <v>205.69954580759787</v>
+        <v>205.69954580000001</v>
       </c>
       <c r="I2">
-        <v>194.06195749999998</v>
+        <v>194.06195750000001</v>
       </c>
       <c r="J2">
-        <v>172.00025955245138</v>
+        <v>172.00025959999999</v>
       </c>
       <c r="K2">
-        <v>149.57505852412297</v>
+        <v>149.57505850000001</v>
       </c>
       <c r="L2">
-        <v>106.19067313992002</v>
+        <v>106.1906731</v>
       </c>
       <c r="M2">
-        <v>87.389966499999986</v>
+        <v>87.3899665</v>
       </c>
       <c r="N2">
-        <v>25.163456637644003</v>
+        <v>25.16345664</v>
       </c>
       <c r="O2">
-        <v>18.501480687556494</v>
+        <v>18.501480690000001</v>
       </c>
       <c r="P2">
-        <v>9.9948456850570011</v>
+        <v>9.9948456849999996</v>
       </c>
       <c r="Q2">
-        <v>8.0863965293849809</v>
+        <v>8.0863965289999999</v>
       </c>
       <c r="R2">
-        <v>6.0800539611045998</v>
+        <v>6.080053961</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>107.06674893978834</v>
+        <v>107.06674889999999</v>
       </c>
       <c r="D3">
-        <v>104.30362236906103</v>
+        <v>104.30362239999999</v>
       </c>
       <c r="E3">
-        <v>104.1722399303037</v>
+        <v>104.17223989999999</v>
       </c>
       <c r="F3">
-        <v>93.932345534831313</v>
+        <v>93.932345530000006</v>
       </c>
       <c r="G3">
-        <v>105.51032267236403</v>
+        <v>105.5103227</v>
       </c>
       <c r="H3">
-        <v>89.098229221460826</v>
+        <v>89.098229219999993</v>
       </c>
       <c r="I3">
-        <v>85.75711903276428</v>
+        <v>85.757119029999998</v>
       </c>
       <c r="J3">
-        <v>72.986476097231304</v>
+        <v>72.986476100000004</v>
       </c>
       <c r="K3">
-        <v>62.899498181706093</v>
+        <v>62.899498180000002</v>
       </c>
       <c r="L3">
-        <v>56.121325756136628</v>
+        <v>56.121325759999998</v>
       </c>
       <c r="M3">
-        <v>51.143702817621289</v>
+        <v>51.143702820000001</v>
       </c>
       <c r="N3">
-        <v>44.434682409149218</v>
+        <v>44.434682410000001</v>
       </c>
       <c r="O3">
-        <v>39.332510235494226</v>
+        <v>39.332510239999998</v>
       </c>
       <c r="P3">
-        <v>34.454581756041577</v>
+        <v>34.454581760000003</v>
       </c>
       <c r="Q3">
-        <v>31.333873090099207</v>
+        <v>31.333873090000001</v>
       </c>
       <c r="R3">
-        <v>27.992547107781665</v>
+        <v>27.99254711</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>332.6678315004001</v>
+        <v>332.66783149999998</v>
       </c>
       <c r="D4">
-        <v>333.6916250300942</v>
+        <v>333.69162499999999</v>
       </c>
       <c r="E4">
-        <v>330.30819643768382</v>
+        <v>330.30819639999999</v>
       </c>
       <c r="F4">
-        <v>322.35157747085395</v>
+        <v>322.35157750000002</v>
       </c>
       <c r="G4">
-        <v>299.81673692772074</v>
+        <v>299.81673690000002</v>
       </c>
       <c r="H4">
-        <v>275.85743881263375</v>
+        <v>275.85743880000001</v>
       </c>
       <c r="I4">
-        <v>261.75182799999993</v>
+        <v>261.75182799999999</v>
       </c>
       <c r="J4">
-        <v>247.86882665859747</v>
+        <v>247.8688267</v>
       </c>
       <c r="K4">
-        <v>232.20594847587702</v>
+        <v>232.20594850000001</v>
       </c>
       <c r="L4">
-        <v>209.41105086008002</v>
+        <v>209.41105089999999</v>
       </c>
       <c r="M4">
-        <v>184.77507599999998</v>
+        <v>184.77507600000001</v>
       </c>
       <c r="N4">
-        <v>138.94378536235601</v>
+        <v>138.9437854</v>
       </c>
       <c r="O4">
-        <v>110.95599390133853</v>
+        <v>110.9559939</v>
       </c>
       <c r="P4">
-        <v>85.657158626582984</v>
+        <v>85.657158629999998</v>
       </c>
       <c r="Q4">
-        <v>73.142821291918636</v>
+        <v>73.142821290000001</v>
       </c>
       <c r="R4">
-        <v>57.736415116712806</v>
+        <v>57.736415119999997</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>170.04752588147278</v>
+        <v>170.04752590000001</v>
       </c>
       <c r="D5">
-        <v>166.41345433566278</v>
+        <v>166.41345430000001</v>
       </c>
       <c r="E5">
-        <v>164.71223809834805</v>
+        <v>164.71223810000001</v>
       </c>
       <c r="F5">
-        <v>167.22477294014612</v>
+        <v>167.2247729</v>
       </c>
       <c r="G5">
-        <v>162.47359377102046</v>
+        <v>162.4735938</v>
       </c>
       <c r="H5">
-        <v>157.56797424881381</v>
+        <v>157.56797420000001</v>
       </c>
       <c r="I5">
-        <v>157.54792470732363</v>
+        <v>157.54792470000001</v>
       </c>
       <c r="J5">
-        <v>153.14576062791761</v>
+        <v>153.14576059999999</v>
       </c>
       <c r="K5">
-        <v>135.1435803082903</v>
+        <v>135.1435803</v>
       </c>
       <c r="L5">
-        <v>132.41169830600262</v>
+        <v>132.41169830000001</v>
       </c>
       <c r="M5">
-        <v>132.05280911555295</v>
+        <v>132.05280909999999</v>
       </c>
       <c r="N5">
-        <v>130.05769911508278</v>
+        <v>130.05769910000001</v>
       </c>
       <c r="O5">
-        <v>125.59482458570932</v>
+        <v>125.5948246</v>
       </c>
       <c r="P5">
-        <v>112.66870686458257</v>
+        <v>112.6687069</v>
       </c>
       <c r="Q5">
-        <v>108.64932355827993</v>
+        <v>108.6493236</v>
       </c>
       <c r="R5">
-        <v>100.07473915984389</v>
+        <v>100.0747392</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>18.680304251400003</v>
+        <v>292.0252127</v>
       </c>
       <c r="D6">
-        <v>24.880475914225599</v>
+        <v>315.65092120000003</v>
       </c>
       <c r="E6">
-        <v>31.186819285259617</v>
+        <v>335.8116235</v>
       </c>
       <c r="F6">
-        <v>38.36574948764769</v>
+        <v>354.62068929999998</v>
       </c>
       <c r="G6">
-        <v>50.58872337941375</v>
+        <v>352.22858600000001</v>
       </c>
       <c r="H6">
-        <v>64.321146238155052</v>
+        <v>348.08836509999998</v>
       </c>
       <c r="I6">
-        <v>73.518352499999992</v>
+        <v>345.20509299999998</v>
       </c>
       <c r="J6">
-        <v>89.948423429801323</v>
+        <v>339.96719350000001</v>
       </c>
       <c r="K6">
-        <v>108.51669872634034</v>
+        <v>332.8875936</v>
       </c>
       <c r="L6">
-        <v>124.88749610448485</v>
+        <v>344.9755902</v>
       </c>
       <c r="M6">
-        <v>153.70909099999994</v>
+        <v>326.32791200000003</v>
       </c>
       <c r="N6">
-        <v>191.66205599999989</v>
+        <v>328.98085500000002</v>
       </c>
       <c r="O6">
-        <v>229.1517613216547</v>
+        <v>300.16366950000003</v>
       </c>
       <c r="P6">
-        <v>263.7466801388</v>
+        <v>277.88540219999999</v>
       </c>
       <c r="Q6">
-        <v>292.02640566502578</v>
+        <v>259.55296900000002</v>
       </c>
       <c r="R6">
-        <v>332.91519549916825</v>
+        <v>233.9518774</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>24.937594006028348</v>
+        <v>128.7385434</v>
       </c>
       <c r="D7">
-        <v>26.218921927268184</v>
+        <v>134.02920399999999</v>
       </c>
       <c r="E7">
-        <v>27.575099207301491</v>
+        <v>136.4282326</v>
       </c>
       <c r="F7">
-        <v>31.313634883848181</v>
+        <v>141.1821592</v>
       </c>
       <c r="G7">
-        <v>33.508579385594658</v>
+        <v>138.0618412</v>
       </c>
       <c r="H7">
-        <v>36.482507283486257</v>
+        <v>148.74972750000001</v>
       </c>
       <c r="I7">
-        <v>37.995170149793012</v>
+        <v>155.4088917</v>
       </c>
       <c r="J7">
-        <v>41.993320205781629</v>
+        <v>158.4777832</v>
       </c>
       <c r="K7">
-        <v>48.704453583154418</v>
+        <v>159.54552509999999</v>
       </c>
       <c r="L7">
-        <v>52.945775969257511</v>
+        <v>157.3305445</v>
       </c>
       <c r="M7">
-        <v>57.984308961117904</v>
+        <v>160.25747150000001</v>
       </c>
       <c r="N7">
-        <v>63.780309836698279</v>
+        <v>160.22120469999999</v>
       </c>
       <c r="O7">
-        <v>65.689178520742416</v>
+        <v>162.8648244</v>
       </c>
       <c r="P7">
-        <v>71.923762706667048</v>
+        <v>169.11286369999999</v>
       </c>
       <c r="Q7">
-        <v>75.813858432783718</v>
+        <v>164.0174327</v>
       </c>
       <c r="R7">
-        <v>82.121707499733247</v>
+        <v>163.2077338</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>292.02521272979993</v>
+        <v>227.26977719999999</v>
       </c>
       <c r="D8">
-        <v>315.65092119762983</v>
+        <v>265.26488590000002</v>
       </c>
       <c r="E8">
-        <v>335.81162353296543</v>
+        <v>302.29456340000002</v>
       </c>
       <c r="F8">
-        <v>354.6206892984402</v>
+        <v>342.59079389999999</v>
       </c>
       <c r="G8">
-        <v>352.22858604467331</v>
+        <v>380.70780889999997</v>
       </c>
       <c r="H8">
-        <v>348.08836513353771</v>
+        <v>420.94743010000002</v>
       </c>
       <c r="I8">
-        <v>345.20509300000009</v>
+        <v>446.5412005</v>
       </c>
       <c r="J8">
-        <v>339.96719352622324</v>
+        <v>476.66167139999999</v>
       </c>
       <c r="K8">
-        <v>332.88759364219499</v>
+        <v>508.2870643</v>
       </c>
       <c r="L8">
-        <v>344.97559024474009</v>
+        <v>551.79731370000002</v>
       </c>
       <c r="M8">
-        <v>326.32791200000003</v>
+        <v>590.11864549999996</v>
       </c>
       <c r="N8">
-        <v>328.98085502969809</v>
+        <v>664.75704299999995</v>
       </c>
       <c r="O8">
-        <v>300.16366954473807</v>
+        <v>694.13600799999995</v>
       </c>
       <c r="P8">
-        <v>277.88540223346001</v>
+        <v>724.312184</v>
       </c>
       <c r="Q8">
-        <v>259.55296901484644</v>
+        <v>734.43135059999997</v>
       </c>
       <c r="R8">
-        <v>233.95187740481057</v>
+        <v>741.38426689999994</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>128.73854339089905</v>
+        <v>100.0510239</v>
       </c>
       <c r="D9">
-        <v>134.02920404005499</v>
+        <v>106.9263186</v>
       </c>
       <c r="E9">
-        <v>136.42823263405035</v>
+        <v>111.92527750000001</v>
       </c>
       <c r="F9">
-        <v>141.18215916847794</v>
+        <v>118.1350636</v>
       </c>
       <c r="G9">
-        <v>138.06184119373449</v>
+        <v>119.12196520000001</v>
       </c>
       <c r="H9">
-        <v>148.74972750146941</v>
+        <v>133.8011588</v>
       </c>
       <c r="I9">
-        <v>155.40889168959262</v>
+        <v>135.69302490000001</v>
       </c>
       <c r="J9">
-        <v>158.47778320094892</v>
+        <v>152.58944389999999</v>
       </c>
       <c r="K9">
-        <v>159.54552508424723</v>
+        <v>179.4221144</v>
       </c>
       <c r="L9">
-        <v>157.33054446556207</v>
+        <v>193.7381326</v>
       </c>
       <c r="M9">
-        <v>160.25747148546048</v>
+        <v>198.05706559999999</v>
       </c>
       <c r="N9">
-        <v>160.22120467674168</v>
+        <v>208.1885168</v>
       </c>
       <c r="O9">
-        <v>162.86482436185969</v>
+        <v>220.24335619999999</v>
       </c>
       <c r="P9">
-        <v>169.11286369970927</v>
+        <v>231.9034667</v>
       </c>
       <c r="Q9">
-        <v>164.01743270619039</v>
+        <v>247.0139288</v>
       </c>
       <c r="R9">
-        <v>163.20773378445728</v>
+        <v>259.55610840000003</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>227.26977721799994</v>
+        <v>18.680304249999999</v>
       </c>
       <c r="D10">
-        <v>265.26488590920678</v>
+        <v>24.880475910000001</v>
       </c>
       <c r="E10">
-        <v>302.29456342158755</v>
+        <v>31.186819289999999</v>
       </c>
       <c r="F10">
-        <v>342.59079387160193</v>
+        <v>38.365749489999999</v>
       </c>
       <c r="G10">
-        <v>380.70780894499092</v>
+        <v>50.588723379999998</v>
       </c>
       <c r="H10">
-        <v>420.94743011492437</v>
+        <v>64.321146240000004</v>
       </c>
       <c r="I10">
-        <v>446.54120050000006</v>
+        <v>73.518352500000006</v>
       </c>
       <c r="J10">
-        <v>476.66167138299954</v>
+        <v>89.948423430000005</v>
       </c>
       <c r="K10">
-        <v>508.28706432002093</v>
+        <v>108.51669870000001</v>
       </c>
       <c r="L10">
-        <v>551.79731369051001</v>
+        <v>124.88749610000001</v>
       </c>
       <c r="M10">
-        <v>590.11864549999996</v>
+        <v>153.709091</v>
       </c>
       <c r="N10">
-        <v>664.75704297030211</v>
+        <v>191.66205600000001</v>
       </c>
       <c r="O10">
-        <v>694.136008014759</v>
+        <v>229.1517613</v>
       </c>
       <c r="P10">
-        <v>724.31218400470004</v>
+        <v>263.74668009999999</v>
       </c>
       <c r="Q10">
-        <v>734.431350649656</v>
+        <v>292.0264057</v>
       </c>
       <c r="R10">
-        <v>741.38426686583193</v>
+        <v>332.91519549999998</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>100.05102387038119</v>
+        <v>24.937594010000002</v>
       </c>
       <c r="D11">
-        <v>106.92631863293138</v>
+        <v>26.21892193</v>
       </c>
       <c r="E11">
-        <v>111.92527750731756</v>
+        <v>27.575099210000001</v>
       </c>
       <c r="F11">
-        <v>118.13506363840327</v>
+        <v>31.313634879999999</v>
       </c>
       <c r="G11">
-        <v>119.12196515785661</v>
+        <v>33.508579390000001</v>
       </c>
       <c r="H11">
-        <v>133.80115875165848</v>
+        <v>36.48250728</v>
       </c>
       <c r="I11">
-        <v>135.6930249462514</v>
+        <v>37.99517015</v>
       </c>
       <c r="J11">
-        <v>152.58944390554745</v>
+        <v>41.99332021</v>
       </c>
       <c r="K11">
-        <v>179.42211437751337</v>
+        <v>48.704453579999999</v>
       </c>
       <c r="L11">
-        <v>193.73813259177018</v>
+        <v>52.94577597</v>
       </c>
       <c r="M11">
-        <v>198.0570656214951</v>
+        <v>57.98430896</v>
       </c>
       <c r="N11">
-        <v>208.18851675857144</v>
+        <v>63.780309840000001</v>
       </c>
       <c r="O11">
-        <v>220.24335619931952</v>
+        <v>65.689178519999999</v>
       </c>
       <c r="P11">
-        <v>231.90346665025561</v>
+        <v>71.923762710000005</v>
       </c>
       <c r="Q11">
-        <v>247.01392879110523</v>
+        <v>75.813858429999996</v>
       </c>
       <c r="R11">
-        <v>259.55610836827157</v>
+        <v>82.121707499999999</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>0.68898580080008287</v>
+        <v>0.68898580099999995</v>
       </c>
       <c r="D12">
-        <v>0.87591631868758668</v>
+        <v>0.875916319</v>
       </c>
       <c r="E12">
-        <v>1.0669195468083217</v>
+        <v>1.0669195469999999</v>
       </c>
       <c r="F12">
-        <v>1.285311342310024</v>
+        <v>1.285311342</v>
       </c>
       <c r="G12">
-        <v>2.07438105300389</v>
+        <v>2.0743810530000002</v>
       </c>
       <c r="H12">
-        <v>2.9710738931514697</v>
+        <v>2.9710738929999998</v>
       </c>
       <c r="I12">
-        <v>3.5765684999998939</v>
+        <v>3.5765685</v>
       </c>
       <c r="J12">
-        <v>4.8136254499268034</v>
+        <v>4.81362545</v>
       </c>
       <c r="K12">
-        <v>6.2326363114441392</v>
+        <v>6.2326363110000003</v>
       </c>
       <c r="L12">
-        <v>6.8678759602648825</v>
+        <v>6.8678759600000001</v>
       </c>
       <c r="M12">
-        <v>8.3743090000000393</v>
+        <v>8.3743090000000002</v>
       </c>
       <c r="N12">
-        <v>7.87280399999986</v>
+        <v>7.8728040000000004</v>
       </c>
       <c r="O12">
-        <v>11.3610865299529</v>
+        <v>11.36108653</v>
       </c>
       <c r="P12">
-        <v>9.623729311399984</v>
+        <v>9.623729311</v>
       </c>
       <c r="Q12">
-        <v>11.425056849167959</v>
+        <v>11.425056850000001</v>
       </c>
       <c r="R12">
-        <v>14.327191152371825</v>
+        <v>14.327191150000001</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>14.804274911430298</v>
+        <v>14.80427491</v>
       </c>
       <c r="D13">
-        <v>15.251722695021613</v>
+        <v>15.2517227</v>
       </c>
       <c r="E13">
-        <v>15.738971622678832</v>
+        <v>15.738971619999999</v>
       </c>
       <c r="F13">
-        <v>16.088845834293124</v>
+        <v>16.08884583</v>
       </c>
       <c r="G13">
-        <v>16.4279608194297</v>
+        <v>16.427960819999999</v>
       </c>
       <c r="H13">
-        <v>16.550850993111226</v>
+        <v>16.550850990000001</v>
       </c>
       <c r="I13">
-        <v>16.98194047427512</v>
+        <v>16.981940470000001</v>
       </c>
       <c r="J13">
-        <v>17.403039962573075</v>
+        <v>17.403039960000001</v>
       </c>
       <c r="K13">
-        <v>18.230282465088521</v>
+        <v>18.230282469999999</v>
       </c>
       <c r="L13">
-        <v>18.914692911271004</v>
+        <v>18.914692909999999</v>
       </c>
       <c r="M13">
-        <v>19.617451998752244</v>
+        <v>19.617452</v>
       </c>
       <c r="N13">
-        <v>20.13471020375664</v>
+        <v>20.134710200000001</v>
       </c>
       <c r="O13">
-        <v>20.735281096874814</v>
+        <v>20.735281100000002</v>
       </c>
       <c r="P13">
-        <v>21.892379322743864</v>
+        <v>21.89237932</v>
       </c>
       <c r="Q13">
-        <v>22.445543421541515</v>
+        <v>22.44554342</v>
       </c>
       <c r="R13">
-        <v>23.477212079912306</v>
+        <v>23.477212080000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R13" xr:uid="{67A168C2-8F43-43EA-9F3B-BB229A06ED8E}">
-    <sortState ref="A2:R13">
-      <sortCondition ref="A1:A13"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007787EA3DE823DC489E44BF4CD2C2AF9F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="370f03dc5414270daf8d13b7061852b2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="543abfbf-1b39-4535-8b1b-c72a4cdaa484" xmlns:ns4="2834bc84-a818-4cb9-8b4d-5179cfe104eb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2e71e97aab67e3d920e413f269f4eb00" ns3:_="" ns4:_="">
-    <xsd:import namespace="543abfbf-1b39-4535-8b1b-c72a4cdaa484"/>
-    <xsd:import namespace="2834bc84-a818-4cb9-8b4d-5179cfe104eb"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="543abfbf-1b39-4535-8b1b-c72a4cdaa484" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:description="" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2834bc84-a818-4cb9-8b4d-5179cfe104eb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4323518F-AC4E-4248-9F6D-0E74519B3C84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="543abfbf-1b39-4535-8b1b-c72a4cdaa484"/>
-    <ds:schemaRef ds:uri="2834bc84-a818-4cb9-8b4d-5179cfe104eb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB4EAA84-00F0-4C3F-B70B-72D6AE05F4D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D095F7C-392F-400C-B329-078A6CC8E369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="543abfbf-1b39-4535-8b1b-c72a4cdaa484"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2834bc84-a818-4cb9-8b4d-5179cfe104eb"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/new-version/data/dreaded-bar-anime-data-for-use.xlsx
+++ b/new-version/data/dreaded-bar-anime-data-for-use.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judyyang/GitHub/24f402c1-271d-4361-a6b3-2ad3a1fcffe1/new-version/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4AD155D-48E0-A44B-85F4-08D31CFD9E27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{71D773CD-4DFF-9446-A803-3DDA375CEF48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
   <si>
     <t>Threshold</t>
   </si>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t>RoEAP</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>China_2002</t>
+  </si>
+  <si>
+    <t>RoEAP_2002</t>
+  </si>
+  <si>
+    <t>China_2017</t>
+  </si>
+  <si>
+    <t>RoEAP_2017</t>
   </si>
 </sst>
 </file>
@@ -593,6 +608,2066 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2002</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dreaded-bar-anime-data-for-use'!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RoEAP_2002</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dreaded-bar-anime-data-for-use'!$B$19:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>extreme</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>moderate</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vulnerable</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>secure</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>middle_class</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>above_mc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dreaded-bar-anime-data-for-use'!$C$19:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>107.06674889999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170.04752590000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.7385434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0510239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.937594010000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.80427491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5263-D442-A240-ADD5E0E16CF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dreaded-bar-anime-data-for-use'!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>China_2002</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dreaded-bar-anime-data-for-use'!$B$19:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>extreme</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>moderate</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vulnerable</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>secure</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>middle_class</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>above_mc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dreaded-bar-anime-data-for-use'!$D$19:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>409.06788849999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>332.66783149999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>292.0252127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>227.26977719999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.680304249999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68898580099999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5263-D442-A240-ADD5E0E16CF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1598788016"/>
+        <c:axId val="1637461392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1598788016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637461392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1637461392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1598788016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2017</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dreaded-bar-anime-data-for-use'!$M$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RoEAP_2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dreaded-bar-anime-data-for-use'!$B$19:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>extreme</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>moderate</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vulnerable</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>secure</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>middle_class</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>above_mc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dreaded-bar-anime-data-for-use'!$M$19:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>27.99254711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0747392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>163.2077338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>259.55610840000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.121707499999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.477212080000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0AF2-7247-97DC-3CDD9D194E93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dreaded-bar-anime-data-for-use'!$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>China_2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dreaded-bar-anime-data-for-use'!$B$19:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>extreme</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>moderate</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vulnerable</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>secure</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>middle_class</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>above_mc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dreaded-bar-anime-data-for-use'!$N$19:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.080053961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.736415119999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>233.9518774</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>741.38426689999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>332.91519549999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.327191150000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0AF2-7247-97DC-3CDD9D194E93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1598788016"/>
+        <c:axId val="1637461392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1598788016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637461392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1637461392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1598788016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03292019-4893-9D42-90AA-820D74AF361E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC87641E-7369-A64B-9C7D-6C012EBE7345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -890,15 +2965,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R13"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -1629,7 +3705,169 @@
         <v>23.477212080000001</v>
       </c>
     </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>107.06674889999999</v>
+      </c>
+      <c r="D19">
+        <v>409.06788849999998</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>27.99254711</v>
+      </c>
+      <c r="N19">
+        <v>6.080053961</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>170.04752590000001</v>
+      </c>
+      <c r="D20">
+        <v>332.66783149999998</v>
+      </c>
+      <c r="L20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>100.0747392</v>
+      </c>
+      <c r="N20">
+        <v>57.736415119999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>128.7385434</v>
+      </c>
+      <c r="D21">
+        <v>292.0252127</v>
+      </c>
+      <c r="L21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>163.2077338</v>
+      </c>
+      <c r="N21">
+        <v>233.9518774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>100.0510239</v>
+      </c>
+      <c r="D22">
+        <v>227.26977719999999</v>
+      </c>
+      <c r="L22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22">
+        <v>259.55610840000003</v>
+      </c>
+      <c r="N22">
+        <v>741.38426689999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>24.937594010000002</v>
+      </c>
+      <c r="D23">
+        <v>18.680304249999999</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>82.121707499999999</v>
+      </c>
+      <c r="N23">
+        <v>332.91519549999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>14.80427491</v>
+      </c>
+      <c r="D24">
+        <v>0.68898580099999995</v>
+      </c>
+      <c r="L24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24">
+        <v>23.477212080000001</v>
+      </c>
+      <c r="N24">
+        <v>14.327191150000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/new-version/data/dreaded-bar-anime-data-for-use.xlsx
+++ b/new-version/data/dreaded-bar-anime-data-for-use.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judyyang/GitHub/24f402c1-271d-4361-a6b3-2ad3a1fcffe1/new-version/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{71D773CD-4DFF-9446-A803-3DDA375CEF48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5410EC09-CD80-B54D-B0CD-008C8EEFC9EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>Threshold</t>
   </si>
@@ -1135,7 +1135,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dreaded-bar-anime-data-for-use'!$M$18</c:f>
+              <c:f>'dreaded-bar-anime-data-for-use'!$L$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1182,7 +1182,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dreaded-bar-anime-data-for-use'!$M$19:$M$24</c:f>
+              <c:f>'dreaded-bar-anime-data-for-use'!$L$19:$L$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1218,7 +1218,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dreaded-bar-anime-data-for-use'!$N$18</c:f>
+              <c:f>'dreaded-bar-anime-data-for-use'!$M$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1265,7 +1265,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dreaded-bar-anime-data-for-use'!$N$19:$N$24</c:f>
+              <c:f>'dreaded-bar-anime-data-for-use'!$M$19:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2594,15 +2594,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2629,16 +2629,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2968,7 +2968,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="K18" sqref="K18:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3705,10 +3705,7 @@
         <v>23.477212080000001</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -3718,20 +3715,17 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
       <c r="L18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -3741,20 +3735,17 @@
       <c r="D19">
         <v>409.06788849999998</v>
       </c>
-      <c r="L19" t="s">
+      <c r="K19" t="s">
         <v>3</v>
       </c>
+      <c r="L19">
+        <v>27.99254711</v>
+      </c>
       <c r="M19">
-        <v>27.99254711</v>
-      </c>
-      <c r="N19">
         <v>6.080053961</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -3764,20 +3755,17 @@
       <c r="D20">
         <v>332.66783149999998</v>
       </c>
-      <c r="L20" t="s">
+      <c r="K20" t="s">
         <v>4</v>
       </c>
+      <c r="L20">
+        <v>100.0747392</v>
+      </c>
       <c r="M20">
-        <v>100.0747392</v>
-      </c>
-      <c r="N20">
         <v>57.736415119999997</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>5</v>
       </c>
@@ -3787,20 +3775,17 @@
       <c r="D21">
         <v>292.0252127</v>
       </c>
-      <c r="L21" t="s">
+      <c r="K21" t="s">
         <v>5</v>
       </c>
+      <c r="L21">
+        <v>163.2077338</v>
+      </c>
       <c r="M21">
-        <v>163.2077338</v>
-      </c>
-      <c r="N21">
         <v>233.9518774</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -3810,20 +3795,17 @@
       <c r="D22">
         <v>227.26977719999999</v>
       </c>
-      <c r="L22" t="s">
+      <c r="K22" t="s">
         <v>6</v>
       </c>
+      <c r="L22">
+        <v>259.55610840000003</v>
+      </c>
       <c r="M22">
-        <v>259.55610840000003</v>
-      </c>
-      <c r="N22">
         <v>741.38426689999994</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>7</v>
       </c>
@@ -3833,20 +3815,17 @@
       <c r="D23">
         <v>18.680304249999999</v>
       </c>
-      <c r="L23" t="s">
+      <c r="K23" t="s">
         <v>7</v>
       </c>
+      <c r="L23">
+        <v>82.121707499999999</v>
+      </c>
       <c r="M23">
-        <v>82.121707499999999</v>
-      </c>
-      <c r="N23">
         <v>332.91519549999998</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>8</v>
       </c>
@@ -3856,13 +3835,13 @@
       <c r="D24">
         <v>0.68898580099999995</v>
       </c>
-      <c r="L24" t="s">
+      <c r="K24" t="s">
         <v>8</v>
       </c>
+      <c r="L24">
+        <v>23.477212080000001</v>
+      </c>
       <c r="M24">
-        <v>23.477212080000001</v>
-      </c>
-      <c r="N24">
         <v>14.327191150000001</v>
       </c>
     </row>

--- a/new-version/data/dreaded-bar-anime-data-for-use.xlsx
+++ b/new-version/data/dreaded-bar-anime-data-for-use.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judyyang/GitHub/24f402c1-271d-4361-a6b3-2ad3a1fcffe1/new-version/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5410EC09-CD80-B54D-B0CD-008C8EEFC9EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3C8DE788-CFD1-BB46-A1EE-9392861ED926}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="11020" yWindow="460" windowWidth="17780" windowHeight="16540"/>
   </bookViews>
   <sheets>
     <sheet name="dreaded-bar-anime-data-for-use" sheetId="1" r:id="rId1"/>
@@ -548,8 +548,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1184,7 +1185,7 @@
             <c:numRef>
               <c:f>'dreaded-bar-anime-data-for-use'!$L$19:$L$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>27.99254711</c:v>
@@ -1267,7 +1268,7 @@
             <c:numRef>
               <c:f>'dreaded-bar-anime-data-for-use'!$M$19:$M$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>6.080053961</c:v>
@@ -1381,7 +1382,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2600,8 +2601,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2630,13 +2631,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
+      <xdr:colOff>755650</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -2967,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:M24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3715,13 +3716,13 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3735,13 +3736,13 @@
       <c r="D19">
         <v>409.06788849999998</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <v>27.99254711</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <v>6.080053961</v>
       </c>
     </row>
@@ -3755,13 +3756,13 @@
       <c r="D20">
         <v>332.66783149999998</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <v>100.0747392</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <v>57.736415119999997</v>
       </c>
     </row>
@@ -3775,13 +3776,13 @@
       <c r="D21">
         <v>292.0252127</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <v>163.2077338</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="1">
         <v>233.9518774</v>
       </c>
     </row>
@@ -3795,13 +3796,13 @@
       <c r="D22">
         <v>227.26977719999999</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="1">
         <v>259.55610840000003</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="1">
         <v>741.38426689999994</v>
       </c>
     </row>
@@ -3815,13 +3816,13 @@
       <c r="D23">
         <v>18.680304249999999</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="1">
         <v>82.121707499999999</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="1">
         <v>332.91519549999998</v>
       </c>
     </row>
@@ -3835,13 +3836,13 @@
       <c r="D24">
         <v>0.68898580099999995</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="1">
         <v>23.477212080000001</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="1">
         <v>14.327191150000001</v>
       </c>
     </row>
